--- a/data/trans_bre/P32C-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Clase-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,18</t>
+          <t>-1,88; 2,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; -1,07</t>
+          <t>-5,6; -1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,0</t>
+          <t>-2,07; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,45</t>
+          <t>-0,44; 2,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,36</t>
+          <t>-2,49; 1,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -0,43</t>
+          <t>-5,37; -0,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -0,44</t>
+          <t>-3,96; -0,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -0,08</t>
+          <t>-2,97; -0,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,54</t>
+          <t>-3,34; -0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,28</t>
+          <t>-2,79; -0,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 8,95</t>
+          <t>-1,68; 7,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,35</t>
+          <t>-3,16; -0,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,34</t>
+          <t>-3,4; 0,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,23</t>
+          <t>-2,75; -0,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,31</t>
+          <t>-2,66; 0,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,4</t>
+          <t>-2,2; 0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 112,05</t>
+          <t>-100,0; 98,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 66,75</t>
+          <t>-100,0; 92,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 123,95</t>
+          <t>-100,0; 109,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 61,18</t>
+          <t>-100,0; 58,05</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,16</t>
+          <t>-3,99; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -0,68</t>
+          <t>-4,69; -0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; -0,97</t>
+          <t>-4,63; -1,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,0</t>
+          <t>-4,08; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 271,01</t>
+          <t>-100,0; 386,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,69</t>
+          <t>-100,0; 64,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 87,89</t>
+          <t>-88,75; 93,96</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,86</t>
+          <t>-2,2; 1,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,78</t>
+          <t>-3,35; 0,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,99</t>
+          <t>-2,42; 1,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,66</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; -0,01</t>
+          <t>-1,78; 0,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; -1,07</t>
+          <t>-2,47; -1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; -0,37</t>
+          <t>-1,75; -0,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,54</t>
+          <t>-1,17; 0,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-80,72; 4,33</t>
+          <t>-80,2; 16,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -55,26</t>
+          <t>-96,4; -56,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-89,92; -23,29</t>
+          <t>-86,38; -18,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-78,0; 66,55</t>
+          <t>-78,14; 61,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32C-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
